--- a/StructureDefinition-PharmaceuticalProduct-withbox.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct-withbox.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T12:25:09+00:00</t>
+    <t>2021-09-13T09:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct-withbox.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct-withbox.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T09:25:05+00:00</t>
+    <t>2021-09-14T08:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PharmaceuticalProduct-withbox.xlsx
+++ b/StructureDefinition-PharmaceuticalProduct-withbox.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Packaged Medicinal Product logical model</t>
+    <t>VMPP logical model</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:10:14+00:00</t>
+    <t>2021-09-14T08:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Medication Knowledge by me logical model.</t>
+    <t>VMPP logical model.</t>
   </si>
   <si>
     <t>Purpose</t>
